--- a/Congreso_2016/Epistemología social.xlsx
+++ b/Congreso_2016/Epistemología social.xlsx
@@ -1995,11 +1995,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2027,11 +2027,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2043,11 +2043,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2055,7 +2055,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2138,8 +2138,8 @@
   </sheetPr>
   <dimension ref="A1:BC23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
